--- a/aqt_docs.xlsx
+++ b/aqt_docs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AQTAPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AQTAPP\aqtsvr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="407">
   <si>
     <t>tapphosts</t>
   </si>
@@ -2440,28 +2440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AQT에 등록된 TEST ID ( 만일 db 에 저장하지 않는다면 불필요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">응답대상 ip </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tcpdump 에 추가할 옵션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module.exports = {</t>
-  </si>
-  <si>
-    <t>    tcode:null,</t>
-  </si>
-  <si>
     <t>    dstip: '27.102' , // '192.168.147.10',//</t>
   </si>
   <si>
@@ -2469,9 +2447,6 @@
   </si>
   <si>
     <t>    svcid:'',</t>
-  </si>
-  <si>
-    <t>    otherCond :'', // ex -&gt;   ' &amp;&amp; ( port 80 || 8080 ) '</t>
   </si>
   <si>
     <t>    maxcnt:200,</t>
@@ -2516,22 +2491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">C: 즉시캡쳐 , F: 파일에서 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">F' 인 경우 :패킷파일명 ,  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:'tcpdump', 1:'netti', 2:'snoop'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>    ctype: 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">    dstf: </t>
     </r>
@@ -2574,10 +2533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 수집건수, 0 인 경우 제한없슴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>    otherOpt :'', // ex -&gt;   ' -A -nnn  '</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2586,14 +2541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>    immd:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: 캡쳐와 동시 테스트송신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>    norcv:0,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2602,11 +2549,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1: 송신만 캡쳐하고 수신은 skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1: 수신결과를 AQTDB 에 저장하지 않음 ( immd 1인경우 해당)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    ctype: 0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:'tcpdump', 1:'netti', 2:'snoop'  ( os 마다 dump명령이 다름. 기본값은 0, tcpdump)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C: 즉시캡쳐 , F: 파일에서   ( 네트워크에서 즉시 캡쳐하는 경우와 이미 캡쳐된 파일에서 읽는 두가지 경우가 있음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위 ptype 이 'F' 인 경우 :패킷파일명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    immd:0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 캡쳐와 동시 테스트송신 ( 캡쳐와 동시에 실시간으로 테스트 송신하는 경우 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcpdump 명령에 에 추가할 옵션 . 임의로 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    tcode:null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQT에 등록된 TEST 시나리오 ID ( tmaster 테이블의 code )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답대상 ip . 목적지 ip 또는 호스트명일수 있음. 임의의 값입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답port, 숫자만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    otherCond :'',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dump 명령에서 사용되는 필터조건  // ex -&gt;   ' ( port 80 || 8080 ) '</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 송신만 캡쳐하고 수신은 skip ( 수집시 송신에 대응하는 수신값을 조립하지 않도록하여 속도향상이 중요할때)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dump시 최대 수집건수, 해당건수만큼 수집되면 종료.   0 인 경우 제한없슴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8214,8 +8221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8310,13 +8317,13 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>353</v>
@@ -8324,84 +8331,87 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>380</v>
+        <v>402</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>404</v>
@@ -8409,18 +8419,18 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -8611,21 +8621,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -8633,13 +8643,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">

--- a/aqt_docs.xlsx
+++ b/aqt_docs.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="408">
   <si>
     <t>tapphosts</t>
   </si>
@@ -2616,12 +2616,37 @@
     <t>{</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">usermod -G pcap -a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCABCB1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCABCB1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2942,6 +2967,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCABCB1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -8219,10 +8251,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8595,6 +8627,11 @@
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="24" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/aqt_docs.xlsx
+++ b/aqt_docs.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="406">
   <si>
     <t>tapphosts</t>
   </si>
@@ -2549,10 +2549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1: 수신결과를 AQTDB 에 저장하지 않음 ( immd 1인경우 해당)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>    ctype: 0,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2573,19 +2569,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1: 캡쳐와 동시 테스트송신 ( 캡쳐와 동시에 실시간으로 테스트 송신하는 경우 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tcpdump 명령에 에 추가할 옵션 . 임의로 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>    tcode:null,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AQT에 등록된 TEST 시나리오 ID ( tmaster 테이블의 code )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2639,6 +2623,14 @@
       </rPr>
       <t>id</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 테스트수신결과를 AQTDB 에 저장하지 않음 ( immd 1인경우 해당)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0: 데이터수집만 수행  1: 실시간 테스트    2: 실시간테스트 결과를 저장하지않음 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8251,15 +8243,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.25" customWidth="1"/>
+    <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8349,7 +8341,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B14" s="2"/>
     </row>
@@ -8363,10 +8355,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8374,7 +8366,7 @@
         <v>387</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8382,15 +8374,15 @@
         <v>384</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -8398,52 +8390,52 @@
         <v>386</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>404</v>
@@ -8451,187 +8443,179 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>389</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>390</v>
+        <v>374</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>405</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A29" s="37"/>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>56</v>
+      <c r="A32" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+      <c r="A55" s="6" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>342</v>
+      <c r="A56" s="24" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-    </row>
-    <row r="60" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+    </row>
+    <row r="59" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="24" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/aqt_docs.xlsx
+++ b/aqt_docs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28380" windowHeight="11325" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28380" windowHeight="11325" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="aqt web" sheetId="7" r:id="rId4"/>
     <sheet name="주요테이블" sheetId="5" r:id="rId5"/>
     <sheet name="프로그램" sheetId="2" r:id="rId6"/>
-    <sheet name="tmax실행구조" sheetId="8" r:id="rId7"/>
-    <sheet name="기타환경변수" sheetId="3" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="tcp_http실행구조" sheetId="10" r:id="rId7"/>
+    <sheet name="tmax실행구조" sheetId="8" r:id="rId8"/>
+    <sheet name="기타환경변수" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="454">
   <si>
     <t>tapphosts</t>
   </si>
@@ -136,19 +138,10 @@
     <t>tmax.env</t>
   </si>
   <si>
-    <t>aqt_execjob.sh</t>
-  </si>
-  <si>
-    <t>aqt_execMst.sh</t>
-  </si>
-  <si>
     <t>aqt_kill.sh</t>
   </si>
   <si>
     <t>aqt_reqsub</t>
-  </si>
-  <si>
-    <t>aqt_request</t>
   </si>
   <si>
     <t>aqt_rnsend2</t>
@@ -2272,10 +2265,6 @@
   </si>
   <si>
     <t>테스트 요청된 패킷 큐에 등록 ( aqt_sendM 또는 aqt_sendM2 실행 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmax 인경우 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2633,12 +2622,229 @@
     <t xml:space="preserve">0: 데이터수집만 수행  1: 실시간 테스트    2: 실시간테스트 결과를 저장하지않음 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>tmax/tuxedo 인경우 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqtctl 에서 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqtctl 에서 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> aqt_execjob.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqt_execMst.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqt_execMst.sh 에서 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> aqt_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> aqt_execChild.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문송신 테스트 실행( 선행 작업완료후 실행 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상서비스 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연관시스템 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트시 연계시스템 인터페이스 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트데이터 확보방안 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치테스트 수행준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치테스트 환경준비
+데이터 및 수행계획 수립
+결과분석 방안수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">거래로그 활용가능여부
+테스트데이터 변환 커스터마이징
+네트워크 캡쳐검토 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스수, 발생건수, 기간별 분포, 전문종류분석등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ AQT테스트 서버 최소필요사양 ]
+리눅스 Redhat 8이상 (Rocky Linux 8 )
+64GB Memory, 32 core
+1TB 저장장치 ( 테스트 데이터 수에 따라 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AQT 서버 준비 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQT 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 설치 및 DB구성(Mariadb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그수집 및 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그데이터 수집 및 변환 수행, AQT DB 에 적재
+네트워크캡쳐 요청 및 결과수집 , 변환 및 적재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집데이터 검증 및 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트데이터의 적합성 및 커버리지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQT 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영중인 배치TOOL을 활용한 테스트 수행 및 모니터링(Ex: Control-M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 결과 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수행결과 분석 및 해결방안수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동화 테스트 수행
+수행결과 레포팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 수행 기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객/수행사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 대상 서비스 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2967,8 +3173,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2987,8 +3209,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3026,13 +3254,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3153,6 +3422,57 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4084,6 +4404,1780 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515225" y="1409700"/>
+          <a:ext cx="6772275" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1504950"/>
+          <a:ext cx="6772275" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="681038" y="2025512"/>
+          <a:ext cx="1365388" cy="633205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>작업등록감시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aqt_execMstjs.sh</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>621196</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2633869" y="1968362"/>
+          <a:ext cx="3486979" cy="938834"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작업요청이 등록되면 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>진행중으로 변경하고 작업종류 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2 : aqt_dumpToDb.js ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>                   9 : lib/sendMain3.js </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>실행</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="897007" y="3003688"/>
+          <a:ext cx="1241563" cy="789747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>작업실행</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>aqt_execjob.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>202509</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="모서리가 둥근 직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952335" y="2986129"/>
+          <a:ext cx="3441839" cy="923843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>요청된 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>tmaster </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>정보를 읽어 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>해당조건에 해당하는</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>프로그램 실행 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>(tcpRequest,httpRequest,udpRequest)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1068457" y="4224134"/>
+          <a:ext cx="1241563" cy="499856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>테스트 큐 등록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t> aqt_sendS</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="5400675"/>
+          <a:ext cx="1238250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>전문송신</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>aqt_sendM</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>75790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="모서리가 둥근 직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3245125" y="4010029"/>
+          <a:ext cx="3142008" cy="921026"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작업큐를 만들고 작업수 만큼 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>aqt_sendM </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>자식프로세스를 생성한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작업큐에  테스트전문</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 등록한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="5200650"/>
+          <a:ext cx="3133725" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작업큐에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 일고 해당 전문을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>tpcall </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>한후 결과를 저장한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353051" y="95250"/>
+          <a:ext cx="1905000" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
+            <a:t>데몬프로그램  시작</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
+            <a:t>aqtctl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" baseline="0"/>
+            <a:t> start [tcp,http]</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8114472" y="2261152"/>
+          <a:ext cx="1241563" cy="745435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>건별등록감시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>aqt_resend.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="모서리가 둥근 직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677400" y="1847850"/>
+          <a:ext cx="3657600" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작업큐 생성</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, aqt_reqsub </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>자식프로세스 생성</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>재전송요청 전문</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작업큐에 등록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(**</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> aqt_reqsub </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>이 갯수는 기본값 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>5,   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>조정해야할경우 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>aqt_deamon.sh </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>"aqt_request  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>숫자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 형식으로 실행</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="3705225"/>
+          <a:ext cx="1238250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0"/>
+            <a:t> 2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>전문송신</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1"/>
+            <a:t>aqt_reqsub</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="3514725"/>
+          <a:ext cx="3133725" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>작업큐에서 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>를 읽어 해당 전문을 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>tpcall </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>한후 결과를 저장한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>aqt_sendM </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>과 다른점은 매건 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> tpstart </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>함</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 화살표 연결선 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3614738" y="723900"/>
+          <a:ext cx="2690813" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="직선 화살표 연결선 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305551" y="723900"/>
+          <a:ext cx="3467099" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277100" y="209551"/>
+          <a:ext cx="2371726" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>aqt_execMstjs.sh, aqt_resend.js </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>실행</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>64398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="직선 연결선 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2046426" y="2342115"/>
+          <a:ext cx="587443" cy="95664"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>202509</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>135008</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="직선 연결선 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2138570" y="3398562"/>
+          <a:ext cx="813765" cy="49489"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>125692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 연결선 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2310020" y="4470542"/>
+          <a:ext cx="935105" cy="3520"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="직선 연결선 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="5653088"/>
+          <a:ext cx="952500" cy="14287"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="직선 연결선 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9356035" y="2458693"/>
+          <a:ext cx="344556" cy="175177"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="직선 연결선 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9686925" y="3957638"/>
+          <a:ext cx="847725" cy="23812"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="직선 화살표 연결선 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1363732" y="2658717"/>
+          <a:ext cx="154057" cy="344971"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 화살표 연결선 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517789" y="3793435"/>
+          <a:ext cx="171450" cy="430699"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="직선 화살표 연결선 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689239" y="4723990"/>
+          <a:ext cx="180975" cy="614565"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6101,7 +8195,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -6137,7 +8231,7 @@
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -6157,7 +8251,7 @@
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -6192,7 +8286,7 @@
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -6212,7 +8306,7 @@
     <row r="7" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -6247,7 +8341,7 @@
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -6267,10 +8361,10 @@
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -6288,10 +8382,10 @@
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -6309,10 +8403,10 @@
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -6330,7 +8424,7 @@
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="28" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -6348,7 +8442,7 @@
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -6368,7 +8462,7 @@
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -6387,7 +8481,7 @@
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -6406,7 +8500,7 @@
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -6425,7 +8519,7 @@
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -6460,7 +8554,7 @@
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -6480,7 +8574,7 @@
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -6499,7 +8593,7 @@
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -6518,7 +8612,7 @@
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="28"/>
@@ -6538,7 +8632,7 @@
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -6556,10 +8650,10 @@
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>129</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>132</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -6578,7 +8672,7 @@
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -6597,7 +8691,7 @@
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -6631,44 +8725,528 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" x14ac:dyDescent="0.3">
       <c r="B33" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15" x14ac:dyDescent="0.3">
       <c r="B35" s="27" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15" x14ac:dyDescent="0.3">
       <c r="B36" s="27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="10" width="6.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40">
+        <v>1</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
+        <v>1</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+    </row>
+    <row r="7" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="1:10" s="54" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40">
+        <v>1</v>
+      </c>
+      <c r="G11" s="41">
+        <v>1</v>
+      </c>
+      <c r="H11" s="41">
+        <v>1</v>
+      </c>
+      <c r="I11" s="41">
+        <v>1</v>
+      </c>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41">
+        <v>1</v>
+      </c>
+      <c r="H15" s="41">
+        <v>1</v>
+      </c>
+      <c r="I15" s="41">
+        <v>1</v>
+      </c>
+      <c r="J15" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40">
+        <v>1</v>
+      </c>
+      <c r="G17" s="41">
+        <v>2</v>
+      </c>
+      <c r="H17" s="41">
+        <v>2</v>
+      </c>
+      <c r="I17" s="41">
+        <v>2</v>
+      </c>
+      <c r="J17" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="50">
+        <f>SUM(E3:E19)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="50">
+        <f>SUM(F3:F19)</f>
+        <v>3</v>
+      </c>
+      <c r="G21" s="50">
+        <f>SUM(G3:G19)</f>
+        <v>4</v>
+      </c>
+      <c r="H21" s="50">
+        <f>SUM(H3:H19)</f>
+        <v>4</v>
+      </c>
+      <c r="I21" s="50">
+        <f>SUM(I3:I19)</f>
+        <v>4</v>
+      </c>
+      <c r="J21" s="50">
+        <f>SUM(J3:J19)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6699,7 +9277,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6720,10 +9298,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6808,10 +9386,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -6825,7 +9403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -6836,102 +9414,102 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="36" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C21" s="20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6953,27 +9531,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7000,859 +9578,859 @@
   <sheetData>
     <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C10" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7864,10 +10442,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7883,18 +10461,18 @@
         <v>27</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="17"/>
@@ -7903,53 +10481,53 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7963,228 +10541,240 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
-        <v>29</v>
+        <v>406</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="35"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="33"/>
       <c r="B10" s="34" t="s">
-        <v>30</v>
+        <v>405</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="34" t="s">
-        <v>31</v>
+        <v>409</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="35"/>
+        <v>410</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="34" t="s">
-        <v>33</v>
+        <v>408</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="35"/>
+        <v>39</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="D16" s="35"/>
     </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="35"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="34" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>71</v>
-      </c>
+      <c r="A20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="A25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>246</v>
-      </c>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="14" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D31" s="17"/>
     </row>
@@ -8194,29 +10784,39 @@
         <v>239</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8226,6 +10826,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8241,12 +10857,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8257,78 +10873,78 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8336,122 +10952,122 @@
     </row>
     <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -8459,122 +11075,122 @@
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
@@ -8582,17 +11198,17 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
@@ -8600,22 +11216,22 @@
     </row>
     <row r="59" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -8623,63 +11239,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/aqt_docs.xlsx
+++ b/aqt_docs.xlsx
@@ -3446,15 +3446,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3472,6 +3463,15 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8843,50 +8843,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="47" t="s">
         <v>442</v>
       </c>
     </row>
@@ -8954,37 +8954,37 @@
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51" t="s">
+    <row r="7" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48" t="s">
         <v>453</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:10" s="54" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:10" s="51" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
@@ -9211,28 +9211,28 @@
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
-      <c r="E21" s="50">
-        <f>SUM(E3:E19)</f>
+      <c r="E21" s="47">
+        <f t="shared" ref="E21:J21" si="0">SUM(E3:E19)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="50">
-        <f>SUM(F3:F19)</f>
+      <c r="F21" s="47">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G21" s="50">
-        <f>SUM(G3:G19)</f>
+      <c r="G21" s="47">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H21" s="50">
-        <f>SUM(H3:H19)</f>
+      <c r="H21" s="47">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I21" s="50">
-        <f>SUM(I3:I19)</f>
+      <c r="I21" s="47">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J21" s="50">
-        <f>SUM(J3:J19)</f>
+      <c r="J21" s="47">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
